--- a/biology/Microbiologie/Circulisporites_elegans/Circulisporites_elegans.xlsx
+++ b/biology/Microbiologie/Circulisporites_elegans/Circulisporites_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circulisporites elegans est une espèce fossile de palynomorphes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Circulisporites elegans est décrite par Ou-yang, Yin &amp; Li en 1974[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Circulisporites elegans est décrite par Ou-yang, Yin &amp; Li en 1974.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Interim Register of Marine and Nonmarine Genera (IRMNG), le genre appartient à la famille d'algues vertes des Zygnemataceae (Zygnematales, Zygnematophyceae, Charophyta). L'espèce a été décrite en Chine. Elle diffère des autres espèces de son genre par sa distribution temporelle qui débute bien avant celle des autres espèces, en débutant au Néoprotérozoïque et en s'étendant jusqu'au Cambrien.
 </t>
